--- a/data/tehilim-data/91.xlsx
+++ b/data/tehilim-data/91.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="212">
   <si>
     <t>original</t>
   </si>
@@ -22,169 +22,169 @@
     <t>א</t>
   </si>
   <si>
-    <t>יֹ֭שֵׁב</t>
+    <t>יֹשֵׁב</t>
   </si>
   <si>
-    <t>Живущий</t>
+    <t>пребывает</t>
   </si>
   <si>
-    <t>בְּסֵ֣תֶר</t>
+    <t>בְּסֵתֶר</t>
   </si>
   <si>
-    <t>в укромном месте</t>
+    <t>непостижимо</t>
   </si>
   <si>
-    <t>עֶלְי֑וֹן</t>
+    <t>עֶלְיוֹן</t>
+  </si>
+  <si>
+    <t>в тени</t>
+  </si>
+  <si>
+    <t>בְּצֵל</t>
   </si>
   <si>
     <t>Всевышнего</t>
   </si>
   <si>
-    <t>בְּצֵ֥ל</t>
+    <t>שַׁדַּי</t>
   </si>
   <si>
-    <t>в тени</t>
+    <t>יִתְלוֹנָן</t>
   </si>
   <si>
-    <t>שַׁ֝דַּ֗י</t>
-  </si>
-  <si>
-    <t>Всемогущего</t>
-  </si>
-  <si>
-    <t>יִתְלוֹנָֽן׃</t>
-  </si>
-  <si>
-    <t>пребывает</t>
+    <t>пребудет</t>
   </si>
   <si>
     <t>ב</t>
   </si>
   <si>
-    <t>אֹמַ֗ר</t>
+    <t>אֹמַר</t>
   </si>
   <si>
-    <t>Скажу</t>
+    <t>говорю</t>
   </si>
   <si>
-    <t>לַֽ֭יהוָה</t>
+    <t>לַיהוָה</t>
   </si>
   <si>
-    <t>Господу</t>
+    <t>о Господе</t>
   </si>
   <si>
-    <t>מַחְסִּ֣י</t>
+    <t>מַחְסִי</t>
   </si>
   <si>
-    <t>Убежище мое</t>
+    <t>убежище мое</t>
   </si>
   <si>
-    <t>וּמְצוּדָתִ֑י</t>
+    <t>וּמְצוּדָתִי</t>
   </si>
   <si>
     <t>и крепость моя</t>
   </si>
   <si>
-    <t>אֱ֝לֹהַ֗י</t>
+    <t>אֱלֹהַי</t>
   </si>
   <si>
     <t>Бог мой</t>
   </si>
   <si>
-    <t>אֶבְטַח־</t>
+    <t>אֶבְטַח-בּוֹ</t>
   </si>
   <si>
-    <t>на которого я уповаю</t>
-  </si>
-  <si>
-    <t>בּֽוֹ׃</t>
+    <t>на Него уповаю</t>
   </si>
   <si>
     <t>ג</t>
   </si>
   <si>
-    <t>כִּ֤י ה֣וּא</t>
+    <t>כִּי</t>
   </si>
   <si>
-    <t>Ибо Он</t>
+    <t>ибо</t>
   </si>
   <si>
-    <t>יַ֭צִּילְךָ</t>
+    <t>הוּא</t>
   </si>
   <si>
-    <t>избавит тебя</t>
+    <t>Он</t>
   </si>
   <si>
-    <t>מִפַּ֥ח</t>
+    <t>יַצִּילְךָ</t>
+  </si>
+  <si>
+    <t>спасет тебя</t>
+  </si>
+  <si>
+    <t>מִפַּח</t>
   </si>
   <si>
     <t>от сети</t>
   </si>
   <si>
-    <t>יָ֑קוּשׁ</t>
+    <t>יָקוּשׁ</t>
   </si>
   <si>
     <t>ловца</t>
   </si>
   <si>
-    <t>מִ֝דֶּ֗בֶר</t>
+    <t>מִדֶּבֶר</t>
   </si>
   <si>
-    <t>и от гибельной</t>
+    <t>от язвы</t>
   </si>
   <si>
-    <t>הַוּ֥וֹת</t>
+    <t>הַוּוֹת</t>
   </si>
   <si>
-    <t>язвы</t>
+    <t>гибельной</t>
   </si>
   <si>
     <t>ד</t>
   </si>
   <si>
-    <t>בְּאֶבְרָת֨וֹ</t>
+    <t>בְּאֶבְרָתוֹ</t>
   </si>
   <si>
-    <t>Перьями Своими</t>
+    <t>перьями своими</t>
   </si>
   <si>
-    <t>יַֽסֶּךְ לָ֔ךְ</t>
+    <t>יָסֵךְ</t>
   </si>
   <si>
-    <t>Он покроет тебя</t>
+    <t>покроет</t>
   </si>
   <si>
-    <t>וְתַֽחַת־</t>
+    <t>לָךְ</t>
   </si>
   <si>
-    <t>и под</t>
+    <t>тебя</t>
   </si>
   <si>
-    <t>כְּנָפָ֖יו</t>
+    <t>וְתַחַת-כְּנָפָיו</t>
   </si>
   <si>
-    <t>крылами Его</t>
+    <t>и под крыльями Его</t>
   </si>
   <si>
-    <t>תֶּחְסֶ֑ה</t>
+    <t>תֶּחְסֶה</t>
   </si>
   <si>
     <t>найдешь прибежище</t>
   </si>
   <si>
-    <t>צִנָּ֥ה</t>
+    <t>צִנָּה</t>
   </si>
   <si>
     <t>щит</t>
   </si>
   <si>
-    <t>וְ֝סֹ֗חֵרָה</t>
+    <t>וְסֹחֵרָה</t>
   </si>
   <si>
-    <t>и ограждение</t>
+    <t>и панцирь</t>
   </si>
   <si>
-    <t>אֲמִתּֽוֹ׃</t>
+    <t>אֲמִתּוֹ</t>
   </si>
   <si>
     <t>истина Его</t>
@@ -193,43 +193,43 @@
     <t>ה</t>
   </si>
   <si>
-    <t>לֹא־</t>
+    <t>לֹא</t>
   </si>
   <si>
-    <t>Не</t>
+    <t>не</t>
   </si>
   <si>
-    <t>תִ֭ירָא</t>
+    <t>תִירָא</t>
   </si>
   <si>
     <t>убоишься</t>
   </si>
   <si>
-    <t>מִפַּ֣חַד</t>
+    <t>מִפַּחַד</t>
   </si>
   <si>
-    <t>ужаса</t>
+    <t>ужасов</t>
   </si>
   <si>
-    <t>לָ֑יְלָה</t>
+    <t>לָיְלָה</t>
   </si>
   <si>
-    <t>ночного</t>
+    <t>ночи</t>
   </si>
   <si>
-    <t>מֵחֵ֥ץ</t>
+    <t>מֵחֵץ</t>
   </si>
   <si>
-    <t>и стрелы</t>
+    <t>стрелы</t>
   </si>
   <si>
-    <t>יָ֝ע֥וּף</t>
+    <t>יָעוּף</t>
   </si>
   <si>
     <t>летящей</t>
   </si>
   <si>
-    <t>יוֹמָֽם׃</t>
+    <t>יוֹמָם</t>
   </si>
   <si>
     <t>днем</t>
@@ -238,37 +238,31 @@
     <t>ו</t>
   </si>
   <si>
-    <t>מִדֶּ֤בֶר</t>
+    <t>בָּאֹפֶל</t>
   </si>
   <si>
-    <t>От язвы</t>
+    <t>ползущей</t>
   </si>
   <si>
-    <t>בָּאֹ֨פֶל</t>
+    <t>יַהֲלֹךְ</t>
   </si>
   <si>
     <t>в мраке</t>
   </si>
   <si>
-    <t>יַהֲלֹ֗ךְ</t>
+    <t>מִקֶּטֶב</t>
   </si>
   <si>
-    <t>ходящей</t>
+    <t>от морока</t>
   </si>
   <si>
-    <t>מִֽקֶּ֫טֶב</t>
+    <t>יָשׁוּד</t>
   </si>
   <si>
-    <t>и заразы</t>
+    <t>губящего</t>
   </si>
   <si>
-    <t>יָשׁ֥וּד</t>
-  </si>
-  <si>
-    <t>опустошающей</t>
-  </si>
-  <si>
-    <t>צָֽהֳרָ֑יִם</t>
+    <t>צָהֳרָיִם</t>
   </si>
   <si>
     <t>в полдень</t>
@@ -277,82 +271,82 @@
     <t>ז</t>
   </si>
   <si>
-    <t>יִפֹּ֤ל</t>
+    <t>יִפֹּל</t>
   </si>
   <si>
-    <t>Падет</t>
+    <t>падут</t>
   </si>
   <si>
-    <t>מִצִּידְךָ֨</t>
+    <t>מִצִּדְךָ</t>
   </si>
   <si>
-    <t>подле тебя</t>
+    <t>около тебя</t>
   </si>
   <si>
-    <t>אֶ֣לֶף</t>
+    <t>אֶלֶף</t>
   </si>
   <si>
     <t>тысяча</t>
   </si>
   <si>
-    <t>וּרְבָבָ֥ה</t>
+    <t>וּרְבָבָה</t>
   </si>
   <si>
     <t>и десять тысяч</t>
   </si>
   <si>
-    <t>מִ֝֗ימִינֶ֗ךָ</t>
+    <t>מִימִינֶךָ</t>
   </si>
   <si>
-    <t>одесную твою</t>
+    <t>справа от тебя</t>
   </si>
   <si>
-    <t>אֵ֣לֶֽיךָ</t>
+    <t>אֵלֶיךָ</t>
   </si>
   <si>
     <t>к тебе</t>
   </si>
   <si>
-    <t>לֹ֣א יוֹגָֽשׁ׃</t>
+    <t>יִגָּשׁ</t>
   </si>
   <si>
-    <t>не приблизится</t>
+    <t>приблизятся</t>
   </si>
   <si>
     <t>ח</t>
   </si>
   <si>
-    <t>רַ֭ק</t>
+    <t>רַק</t>
   </si>
   <si>
-    <t>Только</t>
+    <t>только</t>
   </si>
   <si>
-    <t>בְּעֵינֶ֣יךָ</t>
+    <t>בְּעֵינֶיךָ</t>
   </si>
   <si>
-    <t>очами твоими</t>
+    <t>глазами своими</t>
   </si>
   <si>
-    <t>תַּבִּ֑יט</t>
+    <t>תַבִּיט</t>
   </si>
   <si>
     <t>будешь смотреть</t>
   </si>
   <si>
-    <t>וְ֝שִׁלֻּמַ֗ת</t>
+    <t>וְשִׁלֻּמַת</t>
   </si>
   <si>
-    <t>и возмездие</t>
+    <t>и воздаяние</t>
   </si>
   <si>
-    <t>רְשָׁעִ֥ים</t>
+    <t>רְשָׁעִים</t>
   </si>
   <si>
-    <t>нечестивым</t>
+    <t>нечестивых</t>
   </si>
   <si>
-    <t>תִּרְאֶֽה׃</t>
+    <t>תִּרְאֶה</t>
   </si>
   <si>
     <t>увидишь</t>
@@ -361,46 +355,37 @@
     <t>ט</t>
   </si>
   <si>
-    <t>כִּי־</t>
+    <t>אַתָּה</t>
   </si>
   <si>
-    <t>Ибо</t>
+    <t>Ты</t>
   </si>
   <si>
-    <t>אַתָּ֣ה</t>
+    <t>יְהוָה</t>
   </si>
   <si>
-    <t>ты</t>
+    <t>Господи</t>
   </si>
   <si>
-    <t>יְ֭הוָה</t>
-  </si>
-  <si>
-    <t>Господь</t>
-  </si>
-  <si>
-    <t>מַחְסִּ֑י</t>
-  </si>
-  <si>
-    <t>прибежище мое</t>
-  </si>
-  <si>
-    <t>עֶלְי֖וֹן</t>
-  </si>
-  <si>
-    <t>שַׂ֥מְתָּ</t>
+    <t>שַׂמְתָּ</t>
   </si>
   <si>
     <t>сделал</t>
   </si>
   <si>
-    <t>מְעוֹנֶֽךָ׃</t>
+    <t>מְעוֹנֶךָ</t>
   </si>
   <si>
-    <t>жилищем своим</t>
+    <t>прибежищем своим</t>
   </si>
   <si>
     <t>י</t>
+  </si>
+  <si>
+    <t>לֹא־</t>
+  </si>
+  <si>
+    <t>Не</t>
   </si>
   <si>
     <t>תְאֻנֶּ֣ה</t>
@@ -409,40 +394,40 @@
     <t>приключится</t>
   </si>
   <si>
-    <t>אֵלֶ֣יךָ</t>
+    <t>с тобой</t>
   </si>
   <si>
-    <t>רָעָ֑ה</t>
+    <t>רָעָה</t>
   </si>
   <si>
-    <t>зло</t>
+    <t>плохого</t>
   </si>
   <si>
-    <t>וְ֝נֶ֗גַע</t>
+    <t>וְנֶגַע</t>
   </si>
   <si>
-    <t>и язва</t>
+    <t>и эпидемия</t>
   </si>
   <si>
-    <t>не</t>
+    <t>לֹא-יִקְרַב</t>
   </si>
   <si>
-    <t>יִקְרַ֥ב</t>
+    <t>не приблизится</t>
   </si>
   <si>
-    <t>приблизится</t>
+    <t>בְּאָהֳלֶךָ</t>
   </si>
   <si>
-    <t>בְּאֹֽהָלֶֽךָ׃</t>
-  </si>
-  <si>
-    <t>к жилищу твоему</t>
+    <t>к шатру твоему</t>
   </si>
   <si>
     <t>יא</t>
   </si>
   <si>
     <t>כִּֽי־</t>
+  </si>
+  <si>
+    <t>Ибо</t>
   </si>
   <si>
     <t>מַלְאָכָ֣יו</t>
@@ -484,43 +469,31 @@
     <t>יב</t>
   </si>
   <si>
-    <t>עַל־</t>
+    <t>עַל-כַּפַּיִם</t>
   </si>
   <si>
-    <t>На</t>
+    <t>на ладонях</t>
   </si>
   <si>
-    <t>כַּפַּ֣יִם</t>
-  </si>
-  <si>
-    <t>руках</t>
-  </si>
-  <si>
-    <t>יִשָּׂא֑וּנְךָ</t>
+    <t>יִשָּׂאוּנְךָ</t>
   </si>
   <si>
     <t>понесут тебя</t>
   </si>
   <si>
-    <t>פֶּ֝ן־</t>
+    <t>פֶּן-תִּגֹּף</t>
   </si>
   <si>
-    <t>чтобы не</t>
+    <t>чтобы не наткнулась</t>
   </si>
   <si>
-    <t>תִּגֹּ֥ף</t>
+    <t>בָּאֶבֶן</t>
   </si>
   <si>
-    <t>ударился</t>
+    <t>на камень</t>
   </si>
   <si>
-    <t>בָּאֶ֗בֶן</t>
-  </si>
-  <si>
-    <t>о камень</t>
-  </si>
-  <si>
-    <t>רַגְלֶֽךָ׃</t>
+    <t>רַגְלֶךָ</t>
   </si>
   <si>
     <t>нога твоя</t>
@@ -529,170 +502,158 @@
     <t>יג</t>
   </si>
   <si>
-    <t>שַׁ֭חַל</t>
-  </si>
-  <si>
-    <t>льва</t>
-  </si>
-  <si>
-    <t>וָפֶ֣תֶן</t>
-  </si>
-  <si>
-    <t>и аспида</t>
-  </si>
-  <si>
-    <t>תִּדְרֹ֑ךְ</t>
+    <t>עַל-שַׁחַל</t>
   </si>
   <si>
     <t>наступишь</t>
   </si>
   <si>
-    <t>תִּרְמֹ֖ס</t>
+    <t>וָפֶתֶן</t>
   </si>
   <si>
-    <t>попирать будешь</t>
+    <t>на льва</t>
   </si>
   <si>
-    <t>כְּפִ֣יר</t>
+    <t>תִּדְרֹךְ</t>
   </si>
   <si>
-    <t>וְתַנִּֽין׃</t>
+    <t>и на гадюку</t>
   </si>
   <si>
-    <t>и дракона</t>
+    <t>תִּרְמֹס</t>
+  </si>
+  <si>
+    <t>попираешь</t>
+  </si>
+  <si>
+    <t>כְּפִיר</t>
+  </si>
+  <si>
+    <t>молодого льва</t>
+  </si>
+  <si>
+    <t>וְתַנִּין</t>
+  </si>
+  <si>
+    <t>и змея</t>
   </si>
   <si>
     <t>יד</t>
   </si>
   <si>
-    <t>За то, что</t>
+    <t>כִּי-בִי</t>
   </si>
   <si>
-    <t>בִ֭י</t>
+    <t>за то, что</t>
   </si>
   <si>
-    <t>на Меня</t>
+    <t>חָשַׁק</t>
   </si>
   <si>
-    <t>חָפַ֣ץ</t>
+    <t>возжелал</t>
   </si>
   <si>
-    <t>возлюбил</t>
+    <t>וַאֲפַלְּטֵהוּ</t>
   </si>
   <si>
-    <t>וַאֲפַלְּטֵ֑הוּ</t>
+    <t>спасу его</t>
   </si>
   <si>
-    <t>Я избавлю его</t>
+    <t>אֲשַׂגְּבֵהוּ</t>
   </si>
   <si>
-    <t>אֲ֝שַׂגְּבֵ֗הוּ</t>
+    <t>вознесу его</t>
   </si>
   <si>
-    <t>защищу его</t>
+    <t>כִּי-יָדַע</t>
   </si>
   <si>
-    <t>ибо</t>
+    <t>ибо знает</t>
   </si>
   <si>
-    <t>יָדַ֥ע</t>
+    <t>שְׁמִי</t>
   </si>
   <si>
-    <t>знает</t>
-  </si>
-  <si>
-    <t>שְׁמִֽי׃</t>
-  </si>
-  <si>
-    <t>имя Мое</t>
+    <t>имя мое</t>
   </si>
   <si>
     <t>טו</t>
   </si>
   <si>
-    <t>יִ֭קְרָא</t>
+    <t>יִקְרָאֵנִי</t>
   </si>
   <si>
-    <t>Воззовет</t>
+    <t>позовет меня</t>
   </si>
   <si>
-    <t>אֵלַ֣י</t>
+    <t>וְאֶעֱנֵהוּ</t>
   </si>
   <si>
-    <t>ко Мне</t>
+    <t>и отвечу ему</t>
   </si>
   <si>
-    <t>וְֽאֶעֱנֵ֑הוּ</t>
+    <t>עִמּוֹ-אָנֹכִי</t>
   </si>
   <si>
-    <t>и услышу его</t>
+    <t>с ним я</t>
   </si>
   <si>
-    <t>עִמּֽוֹ־</t>
+    <t>בְצָרָה</t>
   </si>
   <si>
-    <t>с ним</t>
+    <t>в беде</t>
   </si>
   <si>
-    <t>אָנֹכִ֥י</t>
+    <t>אֲחַלְּצֵהוּ</t>
   </si>
   <si>
-    <t>Я</t>
+    <t>избавлю его</t>
   </si>
   <si>
-    <t>בְצָרָ֗ה</t>
+    <t>וַאֲכַבְּדֵהוּ</t>
   </si>
   <si>
-    <t>в скорби</t>
-  </si>
-  <si>
-    <t>אֲ֝חַלְּצֵ֗הוּ</t>
-  </si>
-  <si>
-    <t>וַאֲכַבְּדֵֽהוּ׃</t>
-  </si>
-  <si>
-    <t>и прославлю его</t>
+    <t>и удостою почета</t>
   </si>
   <si>
     <t>טז</t>
   </si>
   <si>
-    <t>אֹ֣רֶךְ</t>
+    <t>אֹרֶךְ</t>
   </si>
   <si>
-    <t>Долготою</t>
+    <t>долголетием</t>
   </si>
   <si>
-    <t>יָ֭מִים</t>
+    <t>יָמִים</t>
   </si>
   <si>
     <t>дней</t>
   </si>
   <si>
-    <t>אַשְׂבִּיעֵ֑הוּ</t>
+    <t>אַשְׂבִּיעֵהוּ</t>
   </si>
   <si>
     <t>насыщу его</t>
   </si>
   <si>
-    <t>וְ֝אַרְאֵ֗הוּ</t>
+    <t>וְאַרְאֵהוּ</t>
   </si>
   <si>
-    <t>и явлю ему</t>
+    <t>и дам увидеть</t>
   </si>
   <si>
-    <t>בִּישׁוּעָתִֽי׃</t>
+    <t>בִּישׁוּעָתִי</t>
   </si>
   <si>
-    <t>спасение Мое</t>
+    <t>спасение мое</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -700,8 +661,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -718,21 +694,39 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -988,7 +982,7 @@
       <c r="B2" s="4">
         <v>1.0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1017,10 +1011,10 @@
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1049,10 +1043,10 @@
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1081,10 +1075,10 @@
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1113,10 +1107,10 @@
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="5"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1145,10 +1139,10 @@
       <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1175,12 +1169,12 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1207,12 +1201,12 @@
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="4">
         <v>2.0</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" s="5"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1239,12 +1233,12 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="5"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1271,12 +1265,12 @@
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="2"/>
+      <c r="C11" s="5"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1303,12 +1297,12 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1335,12 +1329,12 @@
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="2"/>
+      <c r="C13" s="5"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1367,12 +1361,12 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="5"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1399,12 +1393,12 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2"/>
+      <c r="C15" s="5"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1431,10 +1425,12 @@
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1461,12 +1457,12 @@
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1495,10 +1491,10 @@
       <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="2"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1527,10 +1523,10 @@
       <c r="A19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1559,10 +1555,10 @@
       <c r="A20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -1591,10 +1587,10 @@
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -1623,10 +1619,10 @@
       <c r="A22" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -1655,10 +1651,10 @@
       <c r="A23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="5"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1690,7 +1686,7 @@
       <c r="B24" s="4">
         <v>4.0</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="5"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1719,10 +1715,10 @@
       <c r="A25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="5"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1751,10 +1747,10 @@
       <c r="A26" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" s="5"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1783,10 +1779,10 @@
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" s="5"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1815,10 +1811,10 @@
       <c r="A28" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="2"/>
+      <c r="C28" s="5"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1847,10 +1843,10 @@
       <c r="A29" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" s="5"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1879,10 +1875,10 @@
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" s="5"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1911,10 +1907,10 @@
       <c r="A31" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1943,10 +1939,10 @@
       <c r="A32" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="2"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1978,7 +1974,7 @@
       <c r="B33" s="4">
         <v>5.0</v>
       </c>
-      <c r="C33" s="2"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2007,10 +2003,10 @@
       <c r="A34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="2"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2039,10 +2035,10 @@
       <c r="A35" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="2"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -2071,10 +2067,10 @@
       <c r="A36" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -2103,10 +2099,10 @@
       <c r="A37" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="C37" s="5"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -2135,10 +2131,10 @@
       <c r="A38" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="2"/>
+      <c r="C38" s="5"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2167,10 +2163,10 @@
       <c r="A39" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" s="5"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -2199,10 +2195,10 @@
       <c r="A40" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C40" s="2"/>
+      <c r="C40" s="5"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2234,7 +2230,7 @@
       <c r="B41" s="4">
         <v>6.0</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="C41" s="5"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -2261,12 +2257,12 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>76</v>
+      <c r="B42" s="6" t="s">
+        <v>39</v>
       </c>
-      <c r="C42" s="2"/>
+      <c r="C42" s="5"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -2293,12 +2289,12 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>78</v>
+      <c r="B43" s="6" t="s">
+        <v>76</v>
       </c>
-      <c r="C43" s="2"/>
+      <c r="C43" s="5"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2325,12 +2321,12 @@
     </row>
     <row r="44">
       <c r="A44" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>80</v>
+      <c r="B44" s="6" t="s">
+        <v>78</v>
       </c>
-      <c r="C44" s="2"/>
+      <c r="C44" s="5"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2357,12 +2353,12 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>82</v>
+      <c r="B45" s="6" t="s">
+        <v>80</v>
       </c>
-      <c r="C45" s="2"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2389,12 +2385,12 @@
     </row>
     <row r="46">
       <c r="A46" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>84</v>
+      <c r="B46" s="6" t="s">
+        <v>82</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" s="5"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2421,12 +2417,12 @@
     </row>
     <row r="47">
       <c r="A47" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>86</v>
+      <c r="B47" s="6" t="s">
+        <v>84</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" s="5"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -2453,12 +2449,12 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B48" s="4">
         <v>7.0</v>
       </c>
-      <c r="C48" s="2"/>
+      <c r="C48" s="5"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2485,12 +2481,12 @@
     </row>
     <row r="49">
       <c r="A49" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>89</v>
+      <c r="B49" s="6" t="s">
+        <v>87</v>
       </c>
-      <c r="C49" s="2"/>
+      <c r="C49" s="5"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -2517,12 +2513,12 @@
     </row>
     <row r="50">
       <c r="A50" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>91</v>
+      <c r="B50" s="6" t="s">
+        <v>89</v>
       </c>
-      <c r="C50" s="2"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2549,12 +2545,12 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>93</v>
+      <c r="B51" s="6" t="s">
+        <v>91</v>
       </c>
-      <c r="C51" s="2"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2581,12 +2577,12 @@
     </row>
     <row r="52">
       <c r="A52" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>95</v>
+      <c r="B52" s="6" t="s">
+        <v>93</v>
       </c>
-      <c r="C52" s="2"/>
+      <c r="C52" s="5"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2613,12 +2609,12 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>97</v>
+      <c r="B53" s="6" t="s">
+        <v>95</v>
       </c>
-      <c r="C53" s="2"/>
+      <c r="C53" s="5"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2645,12 +2641,12 @@
     </row>
     <row r="54">
       <c r="A54" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>99</v>
+      <c r="B54" s="6" t="s">
+        <v>97</v>
       </c>
-      <c r="C54" s="2"/>
+      <c r="C54" s="5"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2677,12 +2673,12 @@
     </row>
     <row r="55">
       <c r="A55" s="3" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
-      <c r="B55" s="4" t="s">
-        <v>101</v>
+      <c r="B55" s="6" t="s">
+        <v>61</v>
       </c>
-      <c r="C55" s="2"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2709,12 +2705,12 @@
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
-      <c r="B56" s="4">
-        <v>8.0</v>
+      <c r="B56" s="6" t="s">
+        <v>99</v>
       </c>
-      <c r="C56" s="2"/>
+      <c r="C56" s="5"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2741,12 +2737,12 @@
     </row>
     <row r="57">
       <c r="A57" s="3" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>104</v>
+      <c r="B57" s="4">
+        <v>8.0</v>
       </c>
-      <c r="C57" s="2"/>
+      <c r="C57" s="5"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2773,12 +2769,12 @@
     </row>
     <row r="58">
       <c r="A58" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>106</v>
+      <c r="B58" s="6" t="s">
+        <v>102</v>
       </c>
-      <c r="C58" s="2"/>
+      <c r="C58" s="5"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2805,12 +2801,12 @@
     </row>
     <row r="59">
       <c r="A59" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>108</v>
+      <c r="B59" s="6" t="s">
+        <v>104</v>
       </c>
-      <c r="C59" s="2"/>
+      <c r="C59" s="5"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2837,12 +2833,12 @@
     </row>
     <row r="60">
       <c r="A60" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>110</v>
+      <c r="B60" s="6" t="s">
+        <v>106</v>
       </c>
-      <c r="C60" s="2"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2869,12 +2865,12 @@
     </row>
     <row r="61">
       <c r="A61" s="3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>112</v>
+      <c r="B61" s="6" t="s">
+        <v>108</v>
       </c>
-      <c r="C61" s="2"/>
+      <c r="C61" s="5"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2901,12 +2897,12 @@
     </row>
     <row r="62">
       <c r="A62" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>114</v>
+      <c r="B62" s="6" t="s">
+        <v>110</v>
       </c>
-      <c r="C62" s="2"/>
+      <c r="C62" s="5"/>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2933,12 +2929,12 @@
     </row>
     <row r="63">
       <c r="A63" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
-      <c r="B63" s="4">
-        <v>9.0</v>
+      <c r="B63" s="6" t="s">
+        <v>112</v>
       </c>
-      <c r="C63" s="2"/>
+      <c r="C63" s="5"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2965,12 +2961,12 @@
     </row>
     <row r="64">
       <c r="A64" s="3" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>117</v>
+      <c r="B64" s="4">
+        <v>9.0</v>
       </c>
-      <c r="C64" s="2"/>
+      <c r="C64" s="5"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2997,12 +2993,12 @@
     </row>
     <row r="65">
       <c r="A65" s="3" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
-      <c r="B65" s="4" t="s">
-        <v>119</v>
+      <c r="B65" s="6" t="s">
+        <v>29</v>
       </c>
-      <c r="C65" s="2"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -3029,12 +3025,12 @@
     </row>
     <row r="66">
       <c r="A66" s="3" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>121</v>
+      <c r="B66" s="6" t="s">
+        <v>115</v>
       </c>
-      <c r="C66" s="2"/>
+      <c r="C66" s="5"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3061,12 +3057,12 @@
     </row>
     <row r="67">
       <c r="A67" s="3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>123</v>
+      <c r="B67" s="6" t="s">
+        <v>117</v>
       </c>
-      <c r="C67" s="2"/>
+      <c r="C67" s="5"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -3093,12 +3089,12 @@
     </row>
     <row r="68">
       <c r="A68" s="3" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>8</v>
+      <c r="B68" s="6" t="s">
+        <v>20</v>
       </c>
-      <c r="C68" s="2"/>
+      <c r="C68" s="5"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -3125,12 +3121,12 @@
     </row>
     <row r="69">
       <c r="A69" s="3" t="s">
-        <v>125</v>
+        <v>7</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>126</v>
+      <c r="B69" s="6" t="s">
+        <v>10</v>
       </c>
-      <c r="C69" s="2"/>
+      <c r="C69" s="5"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3157,12 +3153,12 @@
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>128</v>
+      <c r="B70" s="6" t="s">
+        <v>119</v>
       </c>
-      <c r="C70" s="2"/>
+      <c r="C70" s="5"/>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -3189,12 +3185,12 @@
     </row>
     <row r="71">
       <c r="A71" s="3" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
-      <c r="B71" s="4">
-        <v>10.0</v>
+      <c r="B71" s="6" t="s">
+        <v>121</v>
       </c>
-      <c r="C71" s="2"/>
+      <c r="C71" s="5"/>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -3220,11 +3216,11 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>60</v>
+      <c r="A72" s="7" t="s">
+        <v>122</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>61</v>
+      <c r="B72" s="8">
+        <v>10.0</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3252,11 +3248,11 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="s">
-        <v>130</v>
+      <c r="A73" s="7" t="s">
+        <v>123</v>
       </c>
-      <c r="B73" s="4" t="s">
-        <v>131</v>
+      <c r="B73" s="8" t="s">
+        <v>124</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3284,11 +3280,11 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
-        <v>132</v>
+      <c r="A74" s="7" t="s">
+        <v>125</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>99</v>
+      <c r="B74" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3317,10 +3313,10 @@
     </row>
     <row r="75">
       <c r="A75" s="3" t="s">
-        <v>133</v>
+        <v>96</v>
       </c>
-      <c r="B75" s="4" t="s">
-        <v>134</v>
+      <c r="B75" s="6" t="s">
+        <v>127</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -3349,10 +3345,10 @@
     </row>
     <row r="76">
       <c r="A76" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>136</v>
+      <c r="B76" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3381,10 +3377,10 @@
     </row>
     <row r="77">
       <c r="A77" s="3" t="s">
-        <v>60</v>
+        <v>130</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>137</v>
+      <c r="B77" s="6" t="s">
+        <v>131</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3413,10 +3409,10 @@
     </row>
     <row r="78">
       <c r="A78" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>139</v>
+      <c r="B78" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3445,10 +3441,10 @@
     </row>
     <row r="79">
       <c r="A79" s="3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>141</v>
+      <c r="B79" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3476,10 +3472,10 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>142</v>
+      <c r="A80" s="7" t="s">
+        <v>136</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B80" s="8">
         <v>11.0</v>
       </c>
       <c r="C80" s="2"/>
@@ -3508,11 +3504,11 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="s">
-        <v>143</v>
+      <c r="A81" s="7" t="s">
+        <v>137</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>117</v>
+      <c r="B81" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3540,11 +3536,11 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
-        <v>144</v>
+      <c r="A82" s="7" t="s">
+        <v>139</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>145</v>
+      <c r="B82" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -3572,11 +3568,11 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="s">
-        <v>146</v>
+      <c r="A83" s="7" t="s">
+        <v>141</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>147</v>
+      <c r="B83" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3604,11 +3600,11 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>148</v>
+      <c r="A84" s="7" t="s">
+        <v>143</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>149</v>
+      <c r="B84" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3636,11 +3632,11 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
-        <v>150</v>
+      <c r="A85" s="7" t="s">
+        <v>145</v>
       </c>
-      <c r="B85" s="4" t="s">
-        <v>151</v>
+      <c r="B85" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3668,11 +3664,11 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="s">
-        <v>152</v>
+      <c r="A86" s="7" t="s">
+        <v>147</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>153</v>
+      <c r="B86" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3700,11 +3696,11 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>154</v>
+      <c r="A87" s="7" t="s">
+        <v>149</v>
       </c>
-      <c r="B87" s="4" t="s">
-        <v>155</v>
+      <c r="B87" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3732,10 +3728,10 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
-        <v>156</v>
+      <c r="A88" s="7" t="s">
+        <v>151</v>
       </c>
-      <c r="B88" s="4">
+      <c r="B88" s="8">
         <v>12.0</v>
       </c>
       <c r="C88" s="2"/>
@@ -3765,10 +3761,10 @@
     </row>
     <row r="89">
       <c r="A89" s="3" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>158</v>
+      <c r="B89" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -3797,10 +3793,10 @@
     </row>
     <row r="90">
       <c r="A90" s="3" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>160</v>
+      <c r="B90" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3829,10 +3825,10 @@
     </row>
     <row r="91">
       <c r="A91" s="3" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
-      <c r="B91" s="4" t="s">
-        <v>162</v>
+      <c r="B91" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3861,10 +3857,10 @@
     </row>
     <row r="92">
       <c r="A92" s="3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>164</v>
+      <c r="B92" s="6" t="s">
+        <v>159</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3893,10 +3889,10 @@
     </row>
     <row r="93">
       <c r="A93" s="3" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
-      <c r="B93" s="4" t="s">
-        <v>166</v>
+      <c r="B93" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3924,11 +3920,11 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
-        <v>167</v>
+      <c r="A94" s="7" t="s">
+        <v>162</v>
       </c>
-      <c r="B94" s="4" t="s">
-        <v>168</v>
+      <c r="B94" s="8">
+        <v>13.0</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3957,10 +3953,10 @@
     </row>
     <row r="95">
       <c r="A95" s="3" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
-      <c r="B95" s="4" t="s">
-        <v>170</v>
+      <c r="B95" s="6" t="s">
+        <v>164</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3989,10 +3985,10 @@
     </row>
     <row r="96">
       <c r="A96" s="3" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
-      <c r="B96" s="4">
-        <v>13.0</v>
+      <c r="B96" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -4021,10 +4017,10 @@
     </row>
     <row r="97">
       <c r="A97" s="3" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
-      <c r="B97" s="4" t="s">
-        <v>158</v>
+      <c r="B97" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -4053,10 +4049,10 @@
     </row>
     <row r="98">
       <c r="A98" s="3" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
-      <c r="B98" s="4" t="s">
-        <v>173</v>
+      <c r="B98" s="6" t="s">
+        <v>170</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -4085,10 +4081,10 @@
     </row>
     <row r="99">
       <c r="A99" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
-      <c r="B99" s="4" t="s">
-        <v>175</v>
+      <c r="B99" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -4117,10 +4113,10 @@
     </row>
     <row r="100">
       <c r="A100" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
-      <c r="B100" s="4" t="s">
-        <v>177</v>
+      <c r="B100" s="6" t="s">
+        <v>174</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -4148,11 +4144,11 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>178</v>
+      <c r="A101" s="7" t="s">
+        <v>175</v>
       </c>
-      <c r="B101" s="4" t="s">
-        <v>179</v>
+      <c r="B101" s="8">
+        <v>14.0</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -4181,10 +4177,10 @@
     </row>
     <row r="102">
       <c r="A102" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
-      <c r="B102" s="4" t="s">
-        <v>173</v>
+      <c r="B102" s="6" t="s">
+        <v>177</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -4213,10 +4209,10 @@
     </row>
     <row r="103">
       <c r="A103" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>182</v>
+      <c r="B103" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -4245,10 +4241,10 @@
     </row>
     <row r="104">
       <c r="A104" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
-      <c r="B104" s="4">
-        <v>14.0</v>
+      <c r="B104" s="6" t="s">
+        <v>181</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -4277,10 +4273,10 @@
     </row>
     <row r="105">
       <c r="A105" s="3" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>184</v>
+      <c r="B105" s="6" t="s">
+        <v>183</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -4309,10 +4305,10 @@
     </row>
     <row r="106">
       <c r="A106" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B106" s="6" t="s">
         <v>185</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>186</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -4341,10 +4337,10 @@
     </row>
     <row r="107">
       <c r="A107" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>188</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -4372,11 +4368,11 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
-        <v>189</v>
+      <c r="A108" s="7" t="s">
+        <v>188</v>
       </c>
-      <c r="B108" s="4" t="s">
-        <v>190</v>
+      <c r="B108" s="8">
+        <v>15.0</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -4405,10 +4401,10 @@
     </row>
     <row r="109">
       <c r="A109" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
-      <c r="B109" s="4" t="s">
-        <v>192</v>
+      <c r="B109" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -4437,10 +4433,10 @@
     </row>
     <row r="110">
       <c r="A110" s="3" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>193</v>
+      <c r="B110" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -4469,10 +4465,10 @@
     </row>
     <row r="111">
       <c r="A111" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B111" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>195</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -4501,10 +4497,10 @@
     </row>
     <row r="112">
       <c r="A112" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B112" s="6" t="s">
         <v>196</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>197</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4533,10 +4529,10 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B113" s="6" t="s">
         <v>198</v>
-      </c>
-      <c r="B113" s="4">
-        <v>15.0</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -4567,7 +4563,7 @@
       <c r="A114" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="6" t="s">
         <v>200</v>
       </c>
       <c r="C114" s="2"/>
@@ -4596,11 +4592,11 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>202</v>
+      <c r="B115" s="8">
+        <v>16.0</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4629,10 +4625,10 @@
     </row>
     <row r="116">
       <c r="A116" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="B116" s="6" t="s">
         <v>203</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4661,10 +4657,10 @@
     </row>
     <row r="117">
       <c r="A117" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B117" s="6" t="s">
         <v>205</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -4693,10 +4689,10 @@
     </row>
     <row r="118">
       <c r="A118" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>208</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -4725,10 +4721,10 @@
     </row>
     <row r="119">
       <c r="A119" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B119" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>210</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4757,10 +4753,10 @@
     </row>
     <row r="120">
       <c r="A120" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B120" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4788,12 +4784,8 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>213</v>
-      </c>
+      <c r="A121" s="9"/>
+      <c r="B121" s="10"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -4820,12 +4812,8 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B122" s="4">
-        <v>16.0</v>
-      </c>
+      <c r="A122" s="11"/>
+      <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -4852,12 +4840,8 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>216</v>
-      </c>
+      <c r="A123" s="11"/>
+      <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
@@ -4884,12 +4868,8 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>218</v>
-      </c>
+      <c r="A124" s="11"/>
+      <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -4916,12 +4896,8 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>220</v>
-      </c>
+      <c r="A125" s="11"/>
+      <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -4948,12 +4924,8 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>222</v>
-      </c>
+      <c r="A126" s="11"/>
+      <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -4980,12 +4952,8 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>224</v>
-      </c>
+      <c r="A127" s="11"/>
+      <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
@@ -5012,8 +4980,8 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="5"/>
-      <c r="B128" s="4"/>
+      <c r="A128" s="11"/>
+      <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5040,7 +5008,7 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="3"/>
+      <c r="A129" s="11"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -5068,7 +5036,7 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="3"/>
+      <c r="A130" s="11"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -5096,7 +5064,7 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="3"/>
+      <c r="A131" s="11"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -5124,7 +5092,7 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="3"/>
+      <c r="A132" s="11"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -5152,7 +5120,7 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="3"/>
+      <c r="A133" s="11"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -5180,7 +5148,7 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="3"/>
+      <c r="A134" s="11"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -5208,7 +5176,7 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="3"/>
+      <c r="A135" s="11"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -5236,7 +5204,7 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="3"/>
+      <c r="A136" s="11"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -5264,7 +5232,7 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="3"/>
+      <c r="A137" s="11"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -5292,7 +5260,7 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="3"/>
+      <c r="A138" s="11"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -5320,7 +5288,7 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="3"/>
+      <c r="A139" s="11"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -5348,7 +5316,7 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="3"/>
+      <c r="A140" s="11"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -5376,7 +5344,7 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="3"/>
+      <c r="A141" s="11"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -5404,7 +5372,7 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="3"/>
+      <c r="A142" s="11"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -5432,7 +5400,7 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="3"/>
+      <c r="A143" s="11"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -5460,7 +5428,7 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="3"/>
+      <c r="A144" s="11"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -5488,7 +5456,7 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="3"/>
+      <c r="A145" s="11"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -5516,7 +5484,7 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="3"/>
+      <c r="A146" s="11"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -5544,7 +5512,7 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="3"/>
+      <c r="A147" s="11"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -5572,7 +5540,7 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="3"/>
+      <c r="A148" s="11"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -5600,7 +5568,7 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="3"/>
+      <c r="A149" s="11"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -5628,7 +5596,7 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="3"/>
+      <c r="A150" s="11"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -5656,7 +5624,7 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="3"/>
+      <c r="A151" s="11"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -5684,7 +5652,7 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="3"/>
+      <c r="A152" s="11"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -5712,7 +5680,7 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="3"/>
+      <c r="A153" s="11"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -5740,7 +5708,7 @@
       <c r="Z153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="3"/>
+      <c r="A154" s="11"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -5768,7 +5736,7 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="3"/>
+      <c r="A155" s="11"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -5796,7 +5764,7 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="3"/>
+      <c r="A156" s="11"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -5824,7 +5792,7 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="3"/>
+      <c r="A157" s="11"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -5852,7 +5820,7 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
+      <c r="A158" s="11"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -5880,7 +5848,7 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="3"/>
+      <c r="A159" s="11"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -5908,7 +5876,7 @@
       <c r="Z159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="3"/>
+      <c r="A160" s="11"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -5936,7 +5904,7 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="3"/>
+      <c r="A161" s="11"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -5964,7 +5932,7 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="3"/>
+      <c r="A162" s="11"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -5992,7 +5960,7 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="3"/>
+      <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -6020,7 +5988,7 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="3"/>
+      <c r="A164" s="11"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -6048,7 +6016,7 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="3"/>
+      <c r="A165" s="11"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -6076,7 +6044,7 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="3"/>
+      <c r="A166" s="11"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -6104,7 +6072,7 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="3"/>
+      <c r="A167" s="11"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -6132,7 +6100,7 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="3"/>
+      <c r="A168" s="11"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -6160,7 +6128,7 @@
       <c r="Z168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="3"/>
+      <c r="A169" s="11"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -6188,7 +6156,7 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="2"/>
+      <c r="A170" s="11"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -6216,7 +6184,7 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="3"/>
+      <c r="A171" s="11"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -6244,7 +6212,7 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="3"/>
+      <c r="A172" s="11"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -6272,7 +6240,7 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="3"/>
+      <c r="A173" s="11"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -6300,7 +6268,7 @@
       <c r="Z173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="3"/>
+      <c r="A174" s="11"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -6328,7 +6296,7 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="3"/>
+      <c r="A175" s="11"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -6356,7 +6324,7 @@
       <c r="Z175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="3"/>
+      <c r="A176" s="11"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -6384,7 +6352,7 @@
       <c r="Z176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="3"/>
+      <c r="A177" s="11"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -6412,7 +6380,7 @@
       <c r="Z177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="3"/>
+      <c r="A178" s="11"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -6440,7 +6408,7 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="3"/>
+      <c r="A179" s="11"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -6468,7 +6436,7 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="3"/>
+      <c r="A180" s="11"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -6496,7 +6464,7 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="3"/>
+      <c r="A181" s="11"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -6524,7 +6492,7 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="3"/>
+      <c r="A182" s="11"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -6552,7 +6520,7 @@
       <c r="Z182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="3"/>
+      <c r="A183" s="11"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -6580,7 +6548,7 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="3"/>
+      <c r="A184" s="11"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -6608,7 +6576,7 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="3"/>
+      <c r="A185" s="11"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -6636,7 +6604,7 @@
       <c r="Z185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="3"/>
+      <c r="A186" s="11"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -6664,7 +6632,7 @@
       <c r="Z186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="3"/>
+      <c r="A187" s="11"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -6692,7 +6660,7 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="3"/>
+      <c r="A188" s="11"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -6720,7 +6688,7 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="3"/>
+      <c r="A189" s="11"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -6748,7 +6716,7 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="3"/>
+      <c r="A190" s="11"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -6776,7 +6744,7 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="3"/>
+      <c r="A191" s="11"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -6804,7 +6772,7 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192">
-      <c r="A192" s="3"/>
+      <c r="A192" s="11"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -6832,7 +6800,7 @@
       <c r="Z192" s="2"/>
     </row>
     <row r="193">
-      <c r="A193" s="3"/>
+      <c r="A193" s="11"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -6860,7 +6828,7 @@
       <c r="Z193" s="2"/>
     </row>
     <row r="194">
-      <c r="A194" s="3"/>
+      <c r="A194" s="11"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -6888,7 +6856,7 @@
       <c r="Z194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="3"/>
+      <c r="A195" s="11"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -6916,7 +6884,7 @@
       <c r="Z195" s="2"/>
     </row>
     <row r="196">
-      <c r="A196" s="3"/>
+      <c r="A196" s="11"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -6944,7 +6912,7 @@
       <c r="Z196" s="2"/>
     </row>
     <row r="197">
-      <c r="A197" s="3"/>
+      <c r="A197" s="11"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -6972,7 +6940,7 @@
       <c r="Z197" s="2"/>
     </row>
     <row r="198">
-      <c r="A198" s="3"/>
+      <c r="A198" s="11"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -7000,7 +6968,7 @@
       <c r="Z198" s="2"/>
     </row>
     <row r="199">
-      <c r="A199" s="3"/>
+      <c r="A199" s="11"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -7028,7 +6996,7 @@
       <c r="Z199" s="2"/>
     </row>
     <row r="200">
-      <c r="A200" s="3"/>
+      <c r="A200" s="11"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -7056,7 +7024,7 @@
       <c r="Z200" s="2"/>
     </row>
     <row r="201">
-      <c r="A201" s="3"/>
+      <c r="A201" s="11"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -7084,7 +7052,7 @@
       <c r="Z201" s="2"/>
     </row>
     <row r="202">
-      <c r="A202" s="3"/>
+      <c r="A202" s="11"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -7112,7 +7080,7 @@
       <c r="Z202" s="2"/>
     </row>
     <row r="203">
-      <c r="A203" s="3"/>
+      <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -7140,7 +7108,7 @@
       <c r="Z203" s="2"/>
     </row>
     <row r="204">
-      <c r="A204" s="3"/>
+      <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -7168,7 +7136,7 @@
       <c r="Z204" s="2"/>
     </row>
     <row r="205">
-      <c r="A205" s="3"/>
+      <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -7196,7 +7164,7 @@
       <c r="Z205" s="2"/>
     </row>
     <row r="206">
-      <c r="A206" s="3"/>
+      <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -7224,7 +7192,7 @@
       <c r="Z206" s="2"/>
     </row>
     <row r="207">
-      <c r="A207" s="3"/>
+      <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -7252,7 +7220,7 @@
       <c r="Z207" s="2"/>
     </row>
     <row r="208">
-      <c r="A208" s="3"/>
+      <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -7280,7 +7248,7 @@
       <c r="Z208" s="2"/>
     </row>
     <row r="209">
-      <c r="A209" s="3"/>
+      <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -29259,202 +29227,6 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994">
-      <c r="A994" s="2"/>
-      <c r="B994" s="2"/>
-      <c r="C994" s="2"/>
-      <c r="D994" s="2"/>
-      <c r="E994" s="2"/>
-      <c r="F994" s="2"/>
-      <c r="G994" s="2"/>
-      <c r="H994" s="2"/>
-      <c r="I994" s="2"/>
-      <c r="J994" s="2"/>
-      <c r="K994" s="2"/>
-      <c r="L994" s="2"/>
-      <c r="M994" s="2"/>
-      <c r="N994" s="2"/>
-      <c r="O994" s="2"/>
-      <c r="P994" s="2"/>
-      <c r="Q994" s="2"/>
-      <c r="R994" s="2"/>
-      <c r="S994" s="2"/>
-      <c r="T994" s="2"/>
-      <c r="U994" s="2"/>
-      <c r="V994" s="2"/>
-      <c r="W994" s="2"/>
-      <c r="X994" s="2"/>
-      <c r="Y994" s="2"/>
-      <c r="Z994" s="2"/>
-    </row>
-    <row r="995">
-      <c r="A995" s="2"/>
-      <c r="B995" s="2"/>
-      <c r="C995" s="2"/>
-      <c r="D995" s="2"/>
-      <c r="E995" s="2"/>
-      <c r="F995" s="2"/>
-      <c r="G995" s="2"/>
-      <c r="H995" s="2"/>
-      <c r="I995" s="2"/>
-      <c r="J995" s="2"/>
-      <c r="K995" s="2"/>
-      <c r="L995" s="2"/>
-      <c r="M995" s="2"/>
-      <c r="N995" s="2"/>
-      <c r="O995" s="2"/>
-      <c r="P995" s="2"/>
-      <c r="Q995" s="2"/>
-      <c r="R995" s="2"/>
-      <c r="S995" s="2"/>
-      <c r="T995" s="2"/>
-      <c r="U995" s="2"/>
-      <c r="V995" s="2"/>
-      <c r="W995" s="2"/>
-      <c r="X995" s="2"/>
-      <c r="Y995" s="2"/>
-      <c r="Z995" s="2"/>
-    </row>
-    <row r="996">
-      <c r="A996" s="2"/>
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-      <c r="D996" s="2"/>
-      <c r="E996" s="2"/>
-      <c r="F996" s="2"/>
-      <c r="G996" s="2"/>
-      <c r="H996" s="2"/>
-      <c r="I996" s="2"/>
-      <c r="J996" s="2"/>
-      <c r="K996" s="2"/>
-      <c r="L996" s="2"/>
-      <c r="M996" s="2"/>
-      <c r="N996" s="2"/>
-      <c r="O996" s="2"/>
-      <c r="P996" s="2"/>
-      <c r="Q996" s="2"/>
-      <c r="R996" s="2"/>
-      <c r="S996" s="2"/>
-      <c r="T996" s="2"/>
-      <c r="U996" s="2"/>
-      <c r="V996" s="2"/>
-      <c r="W996" s="2"/>
-      <c r="X996" s="2"/>
-      <c r="Y996" s="2"/>
-      <c r="Z996" s="2"/>
-    </row>
-    <row r="997">
-      <c r="A997" s="2"/>
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-      <c r="D997" s="2"/>
-      <c r="E997" s="2"/>
-      <c r="F997" s="2"/>
-      <c r="G997" s="2"/>
-      <c r="H997" s="2"/>
-      <c r="I997" s="2"/>
-      <c r="J997" s="2"/>
-      <c r="K997" s="2"/>
-      <c r="L997" s="2"/>
-      <c r="M997" s="2"/>
-      <c r="N997" s="2"/>
-      <c r="O997" s="2"/>
-      <c r="P997" s="2"/>
-      <c r="Q997" s="2"/>
-      <c r="R997" s="2"/>
-      <c r="S997" s="2"/>
-      <c r="T997" s="2"/>
-      <c r="U997" s="2"/>
-      <c r="V997" s="2"/>
-      <c r="W997" s="2"/>
-      <c r="X997" s="2"/>
-      <c r="Y997" s="2"/>
-      <c r="Z997" s="2"/>
-    </row>
-    <row r="998">
-      <c r="A998" s="2"/>
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-      <c r="D998" s="2"/>
-      <c r="E998" s="2"/>
-      <c r="F998" s="2"/>
-      <c r="G998" s="2"/>
-      <c r="H998" s="2"/>
-      <c r="I998" s="2"/>
-      <c r="J998" s="2"/>
-      <c r="K998" s="2"/>
-      <c r="L998" s="2"/>
-      <c r="M998" s="2"/>
-      <c r="N998" s="2"/>
-      <c r="O998" s="2"/>
-      <c r="P998" s="2"/>
-      <c r="Q998" s="2"/>
-      <c r="R998" s="2"/>
-      <c r="S998" s="2"/>
-      <c r="T998" s="2"/>
-      <c r="U998" s="2"/>
-      <c r="V998" s="2"/>
-      <c r="W998" s="2"/>
-      <c r="X998" s="2"/>
-      <c r="Y998" s="2"/>
-      <c r="Z998" s="2"/>
-    </row>
-    <row r="999">
-      <c r="A999" s="2"/>
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-      <c r="D999" s="2"/>
-      <c r="E999" s="2"/>
-      <c r="F999" s="2"/>
-      <c r="G999" s="2"/>
-      <c r="H999" s="2"/>
-      <c r="I999" s="2"/>
-      <c r="J999" s="2"/>
-      <c r="K999" s="2"/>
-      <c r="L999" s="2"/>
-      <c r="M999" s="2"/>
-      <c r="N999" s="2"/>
-      <c r="O999" s="2"/>
-      <c r="P999" s="2"/>
-      <c r="Q999" s="2"/>
-      <c r="R999" s="2"/>
-      <c r="S999" s="2"/>
-      <c r="T999" s="2"/>
-      <c r="U999" s="2"/>
-      <c r="V999" s="2"/>
-      <c r="W999" s="2"/>
-      <c r="X999" s="2"/>
-      <c r="Y999" s="2"/>
-      <c r="Z999" s="2"/>
-    </row>
-    <row r="1000">
-      <c r="A1000" s="2"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-      <c r="E1000" s="2"/>
-      <c r="F1000" s="2"/>
-      <c r="G1000" s="2"/>
-      <c r="H1000" s="2"/>
-      <c r="I1000" s="2"/>
-      <c r="J1000" s="2"/>
-      <c r="K1000" s="2"/>
-      <c r="L1000" s="2"/>
-      <c r="M1000" s="2"/>
-      <c r="N1000" s="2"/>
-      <c r="O1000" s="2"/>
-      <c r="P1000" s="2"/>
-      <c r="Q1000" s="2"/>
-      <c r="R1000" s="2"/>
-      <c r="S1000" s="2"/>
-      <c r="T1000" s="2"/>
-      <c r="U1000" s="2"/>
-      <c r="V1000" s="2"/>
-      <c r="W1000" s="2"/>
-      <c r="X1000" s="2"/>
-      <c r="Y1000" s="2"/>
-      <c r="Z1000" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
